--- a/PDF_downloads_Master_status.xlsx
+++ b/PDF_downloads_Master_status.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,7 +499,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +523,7 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -538,7 +541,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +565,7 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -588,7 +591,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +612,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +637,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +658,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="10">
@@ -679,7 +682,7 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -701,7 +704,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +729,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +754,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +775,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +796,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="16">
@@ -814,7 +817,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="17">
@@ -835,7 +838,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="18">
@@ -863,7 +866,7 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -888,7 +891,7 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -913,7 +916,7 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -935,7 +938,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="22">
@@ -960,7 +963,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +988,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +1009,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="25">
@@ -1030,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1052,7 +1055,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="27">
@@ -1073,7 +1076,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1101,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="29">
@@ -1123,7 +1126,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1147,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="31">
@@ -1165,7 +1168,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="32">
@@ -1186,7 +1189,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="33">
@@ -1203,7 +1206,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="34">
@@ -1224,7 +1227,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="35">
@@ -1245,7 +1248,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="36">
@@ -1266,7 +1269,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="37">
@@ -1287,7 +1290,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="38">
@@ -1315,7 +1318,7 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1344,7 +1347,7 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1369,7 +1372,7 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1395,7 +1398,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="42">
@@ -1423,7 +1426,7 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1445,7 +1448,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="44">
@@ -1466,7 +1469,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1494,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="46">
@@ -1515,7 +1518,7 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1537,7 +1540,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="48">
@@ -1558,7 +1561,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="49">
@@ -1579,7 +1582,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="50">
@@ -1604,7 +1607,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="51">
@@ -1629,7 +1632,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="52">
@@ -1650,7 +1653,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="53">
@@ -1674,7 +1677,7 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1696,7 +1699,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="55">
@@ -1721,7 +1724,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="56">
@@ -1746,7 +1749,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="57">
@@ -1767,7 +1770,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="58">
@@ -1788,7 +1791,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="59">
@@ -1812,7 +1815,7 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1834,7 +1837,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="61">
@@ -1855,7 +1858,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="62">
@@ -1880,7 +1883,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="63">
@@ -1905,7 +1908,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="64">
@@ -1933,7 +1936,7 @@
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1955,7 +1958,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="66">
@@ -1976,7 +1979,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="67">
@@ -1997,7 +2000,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="68">
@@ -2022,7 +2025,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="69">
@@ -2050,7 +2053,7 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2076,7 +2079,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="71">
@@ -2097,7 +2100,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="72">
@@ -2122,7 +2125,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="73">
@@ -2143,7 +2146,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="74">
@@ -2167,7 +2170,7 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2189,7 +2192,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="76">
@@ -2217,7 +2220,7 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2246,7 +2249,7 @@
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2268,7 +2271,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="79">
@@ -2289,7 +2292,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="80">
@@ -2313,7 +2316,7 @@
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2335,7 +2338,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="82">
@@ -2356,7 +2359,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="83">
@@ -2384,7 +2387,7 @@
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2409,7 +2412,7 @@
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2435,7 +2438,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="86">
@@ -2456,7 +2459,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="87">
@@ -2481,7 +2484,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="88">
@@ -2505,7 +2508,7 @@
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2527,7 +2530,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="90">
@@ -2548,7 +2551,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="91">
@@ -2569,7 +2572,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="92">
@@ -2590,7 +2593,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="93">
@@ -2611,7 +2614,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="94">
@@ -2632,7 +2635,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="95">
@@ -2656,7 +2659,7 @@
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2678,7 +2681,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="97">
@@ -2699,7 +2702,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="98">
@@ -2720,7 +2723,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="99">
@@ -2741,7 +2744,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="100">
@@ -2765,7 +2768,7 @@
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2791,7 +2794,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="102">
@@ -2816,7 +2819,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="103">
@@ -2841,7 +2844,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="104">
@@ -2865,7 +2868,7 @@
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2891,7 +2894,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="106">
@@ -2919,7 +2922,7 @@
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2944,7 +2947,7 @@
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" s="2" t="n">
+      <c r="G107" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2970,7 +2973,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="109">
@@ -2995,7 +2998,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="110">
@@ -3023,7 +3026,7 @@
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3048,7 +3051,7 @@
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3074,7 +3077,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="113">
@@ -3095,7 +3098,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="114">
@@ -3116,7 +3119,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="115">
@@ -3135,13 +3138,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Unable to download</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>Downloaded Successfully</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\114_ar2017.pdf</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="116">
@@ -3162,7 +3169,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="117">
@@ -3186,7 +3193,7 @@
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3208,7 +3215,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="119">
@@ -3229,7 +3236,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="120">
@@ -3257,7 +3264,7 @@
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" s="2" t="n">
+      <c r="G120" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3283,7 +3290,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="122">
@@ -3304,7 +3311,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="123">
@@ -3325,7 +3332,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="124">
@@ -3346,7 +3353,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="125">
@@ -3367,7 +3374,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="126">
@@ -3388,7 +3395,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="127">
@@ -3409,7 +3416,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="128">
@@ -3430,7 +3437,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="129">
@@ -3451,7 +3458,7 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="130">
@@ -3475,7 +3482,7 @@
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" s="2" t="n">
+      <c r="G130" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3501,7 +3508,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="132">
@@ -3522,7 +3529,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="133">
@@ -3547,7 +3554,7 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="134">
@@ -3568,7 +3575,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="135">
@@ -3593,7 +3600,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="136">
@@ -3610,7 +3617,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="137">
@@ -3635,7 +3642,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="138">
@@ -3660,7 +3667,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="139">
@@ -3681,7 +3688,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="140">
@@ -3705,7 +3712,7 @@
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" s="2" t="n">
+      <c r="G140" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3730,7 +3737,7 @@
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" s="2" t="n">
+      <c r="G141" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3755,7 +3762,7 @@
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" s="2" t="n">
+      <c r="G142" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3780,7 +3787,7 @@
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" s="2" t="n">
+      <c r="G143" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3802,7 +3809,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="145">
@@ -3826,7 +3833,7 @@
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" s="2" t="n">
+      <c r="G145" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3848,7 +3855,7 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="147">
@@ -3876,7 +3883,7 @@
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" s="2" t="n">
+      <c r="G147" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3898,7 +3905,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="149">
@@ -3923,7 +3930,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="150">
@@ -3948,7 +3955,7 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="151">
@@ -3969,7 +3976,7 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="152">
@@ -3994,7 +4001,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="153">
@@ -4019,7 +4026,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="154">
@@ -4040,7 +4047,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="155">
@@ -4065,7 +4072,7 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="156">
@@ -4086,7 +4093,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="157">
@@ -4110,7 +4117,7 @@
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" s="2" t="n">
+      <c r="G157" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4132,7 +4139,7 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="159">
@@ -4153,7 +4160,7 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="160">
@@ -4178,7 +4185,7 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="161">
@@ -4199,7 +4206,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="162">
@@ -4227,7 +4234,7 @@
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" s="2" t="n">
+      <c r="G162" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4256,7 +4263,7 @@
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" s="2" t="n">
+      <c r="G163" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4282,7 +4289,7 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="165">
@@ -4299,7 +4306,7 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="166">
@@ -4323,7 +4330,7 @@
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" s="2" t="n">
+      <c r="G166" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4345,7 +4352,7 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="168">
@@ -4370,7 +4377,7 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="169">
@@ -4398,7 +4405,7 @@
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" s="2" t="n">
+      <c r="G169" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4420,7 +4427,7 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="171">
@@ -4441,7 +4448,7 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="172">
@@ -4465,7 +4472,7 @@
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" s="2" t="n">
+      <c r="G172" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4490,7 +4497,7 @@
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" s="2" t="n">
+      <c r="G173" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4512,7 +4519,7 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="175">
@@ -4533,7 +4540,7 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="176">
@@ -4554,7 +4561,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="177">
@@ -4579,7 +4586,7 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="178">
@@ -4604,7 +4611,7 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="179">
@@ -4629,7 +4636,7 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="180">
@@ -4654,7 +4661,7 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="181">
@@ -4679,7 +4686,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="182">
@@ -4707,7 +4714,7 @@
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" s="2" t="n">
+      <c r="G182" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4733,7 +4740,7 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="184">
@@ -4757,7 +4764,7 @@
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" s="2" t="n">
+      <c r="G184" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4783,7 +4790,7 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="186">
@@ -4804,7 +4811,7 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="187">
@@ -4825,7 +4832,7 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="188">
@@ -4846,7 +4853,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="189">
@@ -4867,7 +4874,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="190">
@@ -4888,7 +4895,7 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="191">
@@ -4909,7 +4916,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="192">
@@ -4930,7 +4937,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="193">
@@ -4955,7 +4962,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="194">
@@ -4980,7 +4987,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="195">
@@ -5008,7 +5015,7 @@
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" s="2" t="n">
+      <c r="G195" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5030,7 +5037,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="197">
@@ -5055,7 +5062,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="198">
@@ -5083,7 +5090,7 @@
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" s="2" t="n">
+      <c r="G198" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5105,7 +5112,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="200">
@@ -5130,7 +5137,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="201">
@@ -5151,7 +5158,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="202">
@@ -5172,7 +5179,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="203">
@@ -5193,7 +5200,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="204">
@@ -5214,7 +5221,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="205">
@@ -5238,7 +5245,7 @@
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" s="2" t="n">
+      <c r="G205" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5264,7 +5271,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="207">
@@ -5289,7 +5296,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="208">
@@ -5313,7 +5320,7 @@
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" s="2" t="n">
+      <c r="G208" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5339,7 +5346,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="210">
@@ -5364,7 +5371,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="211">
@@ -5389,7 +5396,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="212">
@@ -5410,7 +5417,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="213">
@@ -5431,7 +5438,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="214">
@@ -5452,7 +5459,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="215">
@@ -5477,7 +5484,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="216">
@@ -5502,7 +5509,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="217">
@@ -5523,7 +5530,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="218">
@@ -5544,7 +5551,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="219">
@@ -5565,7 +5572,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="220">
@@ -5589,7 +5596,7 @@
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" s="2" t="n">
+      <c r="G220" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5611,7 +5618,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="222">
@@ -5635,7 +5642,7 @@
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" s="2" t="n">
+      <c r="G222" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5661,7 +5668,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="224">
@@ -5682,7 +5689,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="225">
@@ -5703,7 +5710,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="226">
@@ -5728,7 +5735,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="227">
@@ -5753,7 +5760,7 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="228">
@@ -5777,7 +5784,7 @@
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" s="2" t="n">
+      <c r="G228" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5799,7 +5806,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="230">
@@ -5820,7 +5827,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="231">
@@ -5844,7 +5851,7 @@
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" s="2" t="n">
+      <c r="G231" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5869,7 +5876,7 @@
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" s="2" t="n">
+      <c r="G232" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5891,7 +5898,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="234">
@@ -5912,7 +5919,7 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="235">
@@ -5937,7 +5944,7 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="236">
@@ -5961,7 +5968,7 @@
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
-      <c r="G236" s="2" t="n">
+      <c r="G236" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5987,7 +5994,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="238">
@@ -6012,7 +6019,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="239">
@@ -6031,13 +6038,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Unable to download</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
+          <t>Downloaded Successfully</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\238_20170404-amata-sdr2016-en-02.pdf</t>
+        </is>
+      </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="240">
@@ -6056,13 +6067,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Unable to download</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
+          <t>Downloaded Successfully</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\239_20170404-amatav-sd2016-en.pdf</t>
+        </is>
+      </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="241">
@@ -6083,7 +6098,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="242">
@@ -6104,7 +6119,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="243">
@@ -6125,7 +6140,7 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="244">
@@ -6153,7 +6168,7 @@
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" s="2" t="n">
+      <c r="G244" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6178,7 +6193,7 @@
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" s="2" t="n">
+      <c r="G245" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6200,7 +6215,7 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="247">
@@ -6224,7 +6239,7 @@
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
-      <c r="G247" s="2" t="n">
+      <c r="G247" s="3" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6246,7 +6261,7 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="249">
@@ -6267,7 +6282,7 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="250">
@@ -6288,7 +6303,7 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
     <row r="251">
@@ -6309,7 +6324,7 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" s="2" t="n">
-        <v>45803</v>
+        <v>45805</v>
       </c>
     </row>
   </sheetData>

--- a/PDF_downloads_Master_status.xlsx
+++ b/PDF_downloads_Master_status.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -498,8 +495,10 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" s="2" t="n">
-        <v>45805</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -519,12 +518,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\2_LTN20170512165.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\2_LTN20170512165.pdf</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" s="3" t="n">
-        <v>45803</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -540,8 +541,10 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="2" t="n">
-        <v>45805</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -561,12 +564,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\4_aak_sustainability_report_2016_2017_ebook.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\4_aak_sustainability_report_2016_2017_ebook.pdf</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" s="3" t="n">
-        <v>45803</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -590,8 +595,10 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" s="2" t="n">
-        <v>45805</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -611,8 +618,10 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" s="2" t="n">
-        <v>45805</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -636,8 +645,10 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" s="2" t="n">
-        <v>45805</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -657,8 +668,10 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" s="2" t="n">
-        <v>45805</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -678,12 +691,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\9_1480493978_DDRVF.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\9_1480493978_DDRVF.pdf</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" s="3" t="n">
-        <v>45803</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -703,8 +718,10 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" s="2" t="n">
-        <v>45805</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -728,8 +745,10 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" s="2" t="n">
-        <v>45805</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -753,8 +772,10 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" s="2" t="n">
-        <v>45805</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -774,8 +795,10 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" s="2" t="n">
-        <v>45805</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -795,8 +818,10 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" s="2" t="n">
-        <v>45805</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -816,8 +841,10 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="2" t="n">
-        <v>45805</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -837,8 +864,10 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" s="2" t="n">
-        <v>45805</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -862,12 +891,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\17_ACC-Annual-Report-2016.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\17_ACC-Annual-Report-2016.pdf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" s="3" t="n">
-        <v>45803</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -887,12 +918,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\18_ACC_SD_Report_2016.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\18_ACC_SD_Report_2016.pdf</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" s="3" t="n">
-        <v>45803</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -912,12 +945,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\19_Accelerate_IR_11035_20170619_V04d_LN.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\19_Accelerate_IR_11035_20170619_V04d_LN.pdf</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" s="3" t="n">
-        <v>45803</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -937,8 +972,10 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" s="2" t="n">
-        <v>45805</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -962,8 +999,10 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" s="2" t="n">
-        <v>45805</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -987,8 +1026,10 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" s="2" t="n">
-        <v>45805</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1008,8 +1049,10 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" s="2" t="n">
-        <v>45805</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1029,12 +1072,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\24_2016-Sustainability-Report.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\24_2016-Sustainability-Report.pdf</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" s="3" t="n">
-        <v>45803</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1054,8 +1099,10 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" s="2" t="n">
-        <v>45805</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1075,8 +1122,10 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" s="2" t="n">
-        <v>45805</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1100,8 +1149,10 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" s="2" t="n">
-        <v>45805</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1125,8 +1176,10 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" s="2" t="n">
-        <v>45805</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1146,8 +1199,10 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" s="2" t="n">
-        <v>45805</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1167,8 +1222,10 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" s="2" t="n">
-        <v>45805</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1188,8 +1245,10 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="2" t="n">
-        <v>45805</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1205,8 +1264,10 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" s="2" t="n">
-        <v>45805</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1226,8 +1287,10 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" s="2" t="n">
-        <v>45805</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1247,8 +1310,10 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" s="2" t="n">
-        <v>45805</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1268,8 +1333,10 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" s="2" t="n">
-        <v>45805</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1289,8 +1356,10 @@
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" s="2" t="n">
-        <v>45805</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1314,12 +1383,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\37_link01495791022.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\37_link01495791022.pdf</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" s="3" t="n">
-        <v>45803</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1343,12 +1414,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\38_AdcockIR2017.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\38_AdcockIR2017.pdf</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" s="3" t="n">
-        <v>45803</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1368,12 +1441,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\39_csr2017_e_high.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\39_csr2017_e_high.pdf</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" s="3" t="n">
-        <v>45803</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1397,8 +1472,10 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" s="2" t="n">
-        <v>45805</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1422,12 +1499,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\41_2016-CSR-Report.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\41_2016-CSR-Report.pdf</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="3" t="n">
-        <v>45803</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1447,8 +1526,10 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" s="2" t="n">
-        <v>45805</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1468,8 +1549,10 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" s="2" t="n">
-        <v>45805</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1493,8 +1576,10 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" s="2" t="n">
-        <v>45805</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1514,12 +1599,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\45_H2_AN201703290449404980_01.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\45_H2_AN201703290449404980_01.pdf</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" s="3" t="n">
-        <v>45803</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1539,8 +1626,10 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" s="2" t="n">
-        <v>45805</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1560,8 +1649,10 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" s="2" t="n">
-        <v>45805</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1581,8 +1672,10 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" s="2" t="n">
-        <v>45805</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1606,8 +1699,10 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" s="2" t="n">
-        <v>45805</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1631,8 +1726,10 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" s="2" t="n">
-        <v>45805</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1652,8 +1749,10 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" s="2" t="n">
-        <v>45805</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1673,12 +1772,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250526\52_AEW_Geschaeftsbericht_2016-17.pdf</t>
+          <t>C:\Niharika\PDF_downloader_automatic\Pdfs_20250528\52_AEW_Geschaeftsbericht_2016-17.pdf</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" s="3" t="n">
-        <v>45803</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1698,8 +1799,10 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" s="2" t="n">
-        <v>45805</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1723,8 +1826,10 @@
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" s="2" t="n">
-        <v>45805</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1748,8 +1853,10 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="2" t="n">
-        <v>45805</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1769,8 +1876,10 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" s="2" t="n">
-        <v>45805</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1790,8 +1899,10 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="2" t="n">
-        <v>45805</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1815,7 +1926,7 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1836,8 +1947,10 @@
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" s="2" t="n">
-        <v>45805</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1857,8 +1970,10 @@
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" s="2" t="n">
-        <v>45805</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1882,8 +1997,10 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" s="2" t="n">
-        <v>45805</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1907,8 +2024,10 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" s="2" t="n">
-        <v>45805</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1936,7 +2055,7 @@
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -1957,8 +2076,10 @@
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" s="2" t="n">
-        <v>45805</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1978,8 +2099,10 @@
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" s="2" t="n">
-        <v>45805</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1999,8 +2122,10 @@
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" s="2" t="n">
-        <v>45805</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2024,8 +2149,10 @@
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" s="2" t="n">
-        <v>45805</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2053,7 +2180,7 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2078,8 +2205,10 @@
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="2" t="n">
-        <v>45805</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2099,8 +2228,10 @@
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" s="2" t="n">
-        <v>45805</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2124,8 +2255,10 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="2" t="n">
-        <v>45805</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2145,8 +2278,10 @@
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" s="2" t="n">
-        <v>45805</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2170,7 +2305,7 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="3" t="n">
+      <c r="G74" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2191,8 +2326,10 @@
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" s="2" t="n">
-        <v>45805</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2220,7 +2357,7 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2249,7 +2386,7 @@
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2270,8 +2407,10 @@
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="2" t="n">
-        <v>45805</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2291,8 +2430,10 @@
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" s="2" t="n">
-        <v>45805</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2316,7 +2457,7 @@
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2337,8 +2478,10 @@
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" s="2" t="n">
-        <v>45805</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2358,8 +2501,10 @@
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="2" t="n">
-        <v>45805</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2387,7 +2532,7 @@
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" s="3" t="n">
+      <c r="G83" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2412,7 +2557,7 @@
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="3" t="n">
+      <c r="G84" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2437,8 +2582,10 @@
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" s="2" t="n">
-        <v>45805</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2458,8 +2605,10 @@
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="2" t="n">
-        <v>45805</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2483,8 +2632,10 @@
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" s="2" t="n">
-        <v>45805</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2508,7 +2659,7 @@
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" s="3" t="n">
+      <c r="G88" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2529,8 +2680,10 @@
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" s="2" t="n">
-        <v>45805</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2550,8 +2703,10 @@
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" s="2" t="n">
-        <v>45805</v>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -2571,8 +2726,10 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" s="2" t="n">
-        <v>45805</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2592,8 +2749,10 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" s="2" t="n">
-        <v>45805</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -2613,8 +2772,10 @@
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" s="2" t="n">
-        <v>45805</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2634,8 +2795,10 @@
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" s="2" t="n">
-        <v>45805</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -2659,7 +2822,7 @@
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" s="3" t="n">
+      <c r="G95" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2680,8 +2843,10 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" s="2" t="n">
-        <v>45805</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -2701,8 +2866,10 @@
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" s="2" t="n">
-        <v>45805</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -2722,8 +2889,10 @@
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" s="2" t="n">
-        <v>45805</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -2743,8 +2912,10 @@
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" s="2" t="n">
-        <v>45805</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -2768,7 +2939,7 @@
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" s="3" t="n">
+      <c r="G100" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2793,8 +2964,10 @@
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" s="2" t="n">
-        <v>45805</v>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -2818,8 +2991,10 @@
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" s="2" t="n">
-        <v>45805</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -2843,8 +3018,10 @@
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" s="2" t="n">
-        <v>45805</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -2868,7 +3045,7 @@
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" s="3" t="n">
+      <c r="G104" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2893,8 +3070,10 @@
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" s="2" t="n">
-        <v>45805</v>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -2922,7 +3101,7 @@
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" s="3" t="n">
+      <c r="G106" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2947,7 +3126,7 @@
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -2972,8 +3151,10 @@
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" s="2" t="n">
-        <v>45805</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -2997,8 +3178,10 @@
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" s="2" t="n">
-        <v>45805</v>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3026,7 +3209,7 @@
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" s="3" t="n">
+      <c r="G110" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3051,7 +3234,7 @@
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" s="3" t="n">
+      <c r="G111" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3076,8 +3259,10 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" s="2" t="n">
-        <v>45805</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -3097,8 +3282,10 @@
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" s="2" t="n">
-        <v>45805</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -3118,8 +3305,10 @@
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" s="2" t="n">
-        <v>45805</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -3168,8 +3357,10 @@
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" s="2" t="n">
-        <v>45805</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -3193,7 +3384,7 @@
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" s="3" t="n">
+      <c r="G117" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3214,8 +3405,10 @@
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" s="2" t="n">
-        <v>45805</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -3235,8 +3428,10 @@
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" s="2" t="n">
-        <v>45805</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -3264,7 +3459,7 @@
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" s="3" t="n">
+      <c r="G120" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3289,8 +3484,10 @@
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" s="2" t="n">
-        <v>45805</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -3310,8 +3507,10 @@
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" s="2" t="n">
-        <v>45805</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -3331,8 +3530,10 @@
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" s="2" t="n">
-        <v>45805</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -3352,8 +3553,10 @@
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" s="2" t="n">
-        <v>45805</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -3373,8 +3576,10 @@
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" s="2" t="n">
-        <v>45805</v>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -3394,8 +3599,10 @@
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" s="2" t="n">
-        <v>45805</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -3415,8 +3622,10 @@
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" s="2" t="n">
-        <v>45805</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -3436,8 +3645,10 @@
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" s="2" t="n">
-        <v>45805</v>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -3457,8 +3668,10 @@
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" s="2" t="n">
-        <v>45805</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -3482,7 +3695,7 @@
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" s="3" t="n">
+      <c r="G130" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3507,8 +3720,10 @@
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" s="2" t="n">
-        <v>45805</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -3528,8 +3743,10 @@
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" s="2" t="n">
-        <v>45805</v>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -3553,8 +3770,10 @@
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" s="2" t="n">
-        <v>45805</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -3574,8 +3793,10 @@
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" s="2" t="n">
-        <v>45805</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -3599,8 +3820,10 @@
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" s="2" t="n">
-        <v>45805</v>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -3616,8 +3839,10 @@
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" s="2" t="n">
-        <v>45805</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -3641,8 +3866,10 @@
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" s="2" t="n">
-        <v>45805</v>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -3666,8 +3893,10 @@
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" s="2" t="n">
-        <v>45805</v>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -3687,8 +3916,10 @@
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" s="2" t="n">
-        <v>45805</v>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -3712,7 +3943,7 @@
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" s="3" t="n">
+      <c r="G140" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3737,7 +3968,7 @@
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" s="3" t="n">
+      <c r="G141" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3762,7 +3993,7 @@
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" s="3" t="n">
+      <c r="G142" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3787,7 +4018,7 @@
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" s="3" t="n">
+      <c r="G143" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3808,8 +4039,10 @@
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" s="2" t="n">
-        <v>45805</v>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -3833,7 +4066,7 @@
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" s="3" t="n">
+      <c r="G145" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3854,8 +4087,10 @@
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" s="2" t="n">
-        <v>45805</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -3883,7 +4118,7 @@
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" s="3" t="n">
+      <c r="G147" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -3904,8 +4139,10 @@
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" s="2" t="n">
-        <v>45805</v>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -3929,8 +4166,10 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" s="2" t="n">
-        <v>45805</v>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -3954,8 +4193,10 @@
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" s="2" t="n">
-        <v>45805</v>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -3975,8 +4216,10 @@
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" s="2" t="n">
-        <v>45805</v>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -4000,8 +4243,10 @@
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" s="2" t="n">
-        <v>45805</v>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -4025,8 +4270,10 @@
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" s="2" t="n">
-        <v>45805</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -4046,8 +4293,10 @@
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" s="2" t="n">
-        <v>45805</v>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -4071,8 +4320,10 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" s="2" t="n">
-        <v>45805</v>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -4092,8 +4343,10 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" s="2" t="n">
-        <v>45805</v>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -4117,7 +4370,7 @@
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" s="3" t="n">
+      <c r="G157" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4138,8 +4391,10 @@
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" s="2" t="n">
-        <v>45805</v>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -4159,8 +4414,10 @@
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" s="2" t="n">
-        <v>45805</v>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -4184,8 +4441,10 @@
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" s="2" t="n">
-        <v>45805</v>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -4205,8 +4464,10 @@
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" s="2" t="n">
-        <v>45805</v>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -4234,7 +4495,7 @@
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" s="3" t="n">
+      <c r="G162" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4263,7 +4524,7 @@
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" s="3" t="n">
+      <c r="G163" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4288,8 +4549,10 @@
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" s="2" t="n">
-        <v>45805</v>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -4305,8 +4568,10 @@
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" s="2" t="n">
-        <v>45805</v>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -4330,7 +4595,7 @@
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" s="3" t="n">
+      <c r="G166" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4351,8 +4616,10 @@
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" s="2" t="n">
-        <v>45805</v>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -4376,8 +4643,10 @@
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" s="2" t="n">
-        <v>45805</v>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4405,7 +4674,7 @@
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" s="3" t="n">
+      <c r="G169" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4426,8 +4695,10 @@
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" s="2" t="n">
-        <v>45805</v>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -4447,8 +4718,10 @@
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" s="2" t="n">
-        <v>45805</v>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -4472,7 +4745,7 @@
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" s="3" t="n">
+      <c r="G172" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4497,7 +4770,7 @@
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" s="3" t="n">
+      <c r="G173" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4518,8 +4791,10 @@
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" s="2" t="n">
-        <v>45805</v>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -4539,8 +4814,10 @@
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" s="2" t="n">
-        <v>45805</v>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -4560,8 +4837,10 @@
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" s="2" t="n">
-        <v>45805</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -4585,8 +4864,10 @@
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" s="2" t="n">
-        <v>45805</v>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -4610,8 +4891,10 @@
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" s="2" t="n">
-        <v>45805</v>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -4635,8 +4918,10 @@
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" s="2" t="n">
-        <v>45805</v>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -4660,8 +4945,10 @@
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" s="2" t="n">
-        <v>45805</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -4685,8 +4972,10 @@
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" s="2" t="n">
-        <v>45805</v>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -4714,7 +5003,7 @@
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" s="3" t="n">
+      <c r="G182" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4739,8 +5028,10 @@
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" s="2" t="n">
-        <v>45805</v>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -4764,7 +5055,7 @@
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" s="3" t="n">
+      <c r="G184" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -4789,8 +5080,10 @@
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" s="2" t="n">
-        <v>45805</v>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -4810,8 +5103,10 @@
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" s="2" t="n">
-        <v>45805</v>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -4831,8 +5126,10 @@
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" s="2" t="n">
-        <v>45805</v>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -4852,8 +5149,10 @@
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" s="2" t="n">
-        <v>45805</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -4873,8 +5172,10 @@
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" s="2" t="n">
-        <v>45805</v>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -4894,8 +5195,10 @@
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" s="2" t="n">
-        <v>45805</v>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -4915,8 +5218,10 @@
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" s="2" t="n">
-        <v>45805</v>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -4936,8 +5241,10 @@
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" s="2" t="n">
-        <v>45805</v>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -4961,8 +5268,10 @@
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" s="2" t="n">
-        <v>45805</v>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -4986,8 +5295,10 @@
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" s="2" t="n">
-        <v>45805</v>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -5015,7 +5326,7 @@
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" s="3" t="n">
+      <c r="G195" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5036,8 +5347,10 @@
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" s="2" t="n">
-        <v>45805</v>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -5061,8 +5374,10 @@
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" s="2" t="n">
-        <v>45805</v>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -5090,7 +5405,7 @@
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" s="3" t="n">
+      <c r="G198" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5111,8 +5426,10 @@
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" s="2" t="n">
-        <v>45805</v>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -5136,8 +5453,10 @@
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" s="2" t="n">
-        <v>45805</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -5157,8 +5476,10 @@
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" s="2" t="n">
-        <v>45805</v>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -5178,8 +5499,10 @@
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" s="2" t="n">
-        <v>45805</v>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -5199,8 +5522,10 @@
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" s="2" t="n">
-        <v>45805</v>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -5220,8 +5545,10 @@
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" s="2" t="n">
-        <v>45805</v>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -5245,7 +5572,7 @@
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" s="3" t="n">
+      <c r="G205" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5270,8 +5597,10 @@
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" s="2" t="n">
-        <v>45805</v>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -5295,8 +5624,10 @@
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" s="2" t="n">
-        <v>45805</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -5320,7 +5651,7 @@
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" s="3" t="n">
+      <c r="G208" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5345,8 +5676,10 @@
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" s="2" t="n">
-        <v>45805</v>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -5370,8 +5703,10 @@
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" s="2" t="n">
-        <v>45805</v>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -5395,8 +5730,10 @@
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" s="2" t="n">
-        <v>45805</v>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -5416,8 +5753,10 @@
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" s="2" t="n">
-        <v>45805</v>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -5437,8 +5776,10 @@
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" s="2" t="n">
-        <v>45805</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -5458,8 +5799,10 @@
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" s="2" t="n">
-        <v>45805</v>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -5483,8 +5826,10 @@
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" s="2" t="n">
-        <v>45805</v>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -5508,8 +5853,10 @@
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" s="2" t="n">
-        <v>45805</v>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -5529,8 +5876,10 @@
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" s="2" t="n">
-        <v>45805</v>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -5550,8 +5899,10 @@
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
-      <c r="G218" s="2" t="n">
-        <v>45805</v>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -5571,8 +5922,10 @@
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" s="2" t="n">
-        <v>45805</v>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -5596,7 +5949,7 @@
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" s="3" t="n">
+      <c r="G220" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5617,8 +5970,10 @@
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" s="2" t="n">
-        <v>45805</v>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -5642,7 +5997,7 @@
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" s="3" t="n">
+      <c r="G222" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5667,8 +6022,10 @@
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" s="2" t="n">
-        <v>45805</v>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -5688,8 +6045,10 @@
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" s="2" t="n">
-        <v>45805</v>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -5709,8 +6068,10 @@
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" s="2" t="n">
-        <v>45805</v>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -5734,8 +6095,10 @@
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" s="2" t="n">
-        <v>45805</v>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -5759,8 +6122,10 @@
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" s="2" t="n">
-        <v>45805</v>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -5784,7 +6149,7 @@
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" s="3" t="n">
+      <c r="G228" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5805,8 +6170,10 @@
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" s="2" t="n">
-        <v>45805</v>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -5826,8 +6193,10 @@
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" s="2" t="n">
-        <v>45805</v>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -5851,7 +6220,7 @@
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" s="3" t="n">
+      <c r="G231" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5876,7 +6245,7 @@
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" s="3" t="n">
+      <c r="G232" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5897,8 +6266,10 @@
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" s="2" t="n">
-        <v>45805</v>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -5918,8 +6289,10 @@
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
-      <c r="G234" s="2" t="n">
-        <v>45805</v>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -5943,8 +6316,10 @@
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" s="2" t="n">
-        <v>45805</v>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -5968,7 +6343,7 @@
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
-      <c r="G236" s="3" t="n">
+      <c r="G236" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -5993,8 +6368,10 @@
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" s="2" t="n">
-        <v>45805</v>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -6018,8 +6395,10 @@
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
-      <c r="G238" s="2" t="n">
-        <v>45805</v>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -6097,8 +6476,10 @@
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" s="2" t="n">
-        <v>45805</v>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -6118,8 +6499,10 @@
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" s="2" t="n">
-        <v>45805</v>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -6139,8 +6522,10 @@
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" s="2" t="n">
-        <v>45805</v>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -6168,7 +6553,7 @@
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" s="3" t="n">
+      <c r="G244" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6193,7 +6578,7 @@
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" s="3" t="n">
+      <c r="G245" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6214,8 +6599,10 @@
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" s="2" t="n">
-        <v>45805</v>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -6239,7 +6626,7 @@
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
-      <c r="G247" s="3" t="n">
+      <c r="G247" s="2" t="n">
         <v>45803</v>
       </c>
     </row>
@@ -6260,8 +6647,10 @@
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
-      <c r="G248" s="2" t="n">
-        <v>45805</v>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -6281,8 +6670,10 @@
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" s="2" t="n">
-        <v>45805</v>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -6302,8 +6693,10 @@
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" s="2" t="n">
-        <v>45805</v>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -6323,8 +6716,10 @@
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" s="2" t="n">
-        <v>45805</v>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>20250528</t>
+        </is>
       </c>
     </row>
   </sheetData>
